--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RM1-LM1-EMG_KK01.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
@@ -758,47 +755,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>431800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8201" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8201"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -867,17 +823,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>101600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>220134</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1422400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>239184</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8202" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8202"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="PowerPoint.Show.12">
-    <oleItems>
-      <oleItem name="'" advise="1" preferPic="1"/>
-    </oleItems>
-  </oleLink>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,7 +1189,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1469,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>30</v>
       </c>
@@ -1559,33 +1546,33 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8201">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
+        <oleObject progId="Presentation" shapeId="8202" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:colOff>101600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>222250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1447800</xdr:colOff>
+                <xdr:colOff>1422400</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>431800</xdr:rowOff>
+                <xdr:rowOff>241300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8201"/>
+        <oleObject progId="Presentation" shapeId="8202" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>